--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. stakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF67458-866A-4D11-A98E-462344061178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567432C4-1E85-4CD4-AB0F-7F1FF7CEA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Fn</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>setUpDistri, endDsitri, claimRewards</t>
+  </si>
+  <si>
+    <t>whenNotFrozen</t>
+  </si>
+  <si>
+    <t>Btw, I told Kenneth that I'd like to take leave for the first 1.5/2 weeks of Feb.</t>
+  </si>
+  <si>
+    <t>3 to 16</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,6 +326,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -632,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D544DF9-B6D7-473E-A453-2471533C1400}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="F23" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +655,11 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -665,88 +676,100 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -763,98 +786,108 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
@@ -868,26 +901,33 @@
       <c r="E28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O29" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. stakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567432C4-1E85-4CD4-AB0F-7F1FF7CEA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05B0DE-F752-402E-B101-53246CF8BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Fn</t>
   </si>
@@ -166,12 +166,6 @@
   </si>
   <si>
     <t>whenNotFrozen</t>
-  </si>
-  <si>
-    <t>Btw, I told Kenneth that I'd like to take leave for the first 1.5/2 weeks of Feb.</t>
-  </si>
-  <si>
-    <t>3 to 16</t>
   </si>
 </sst>
 </file>
@@ -645,7 +639,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F22:F23"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,31 +855,44 @@
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="C25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="C26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -905,17 +912,12 @@
       <c r="G28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O28" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. stakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05B0DE-F752-402E-B101-53246CF8BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0BD31-81E5-4DFA-8C92-E7A6AD29E382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Fn</t>
   </si>
@@ -144,12 +145,6 @@
     <t>only callable by RP contract</t>
   </si>
   <si>
-    <t>pack library return variables into struct</t>
-  </si>
-  <si>
-    <t>can use uint128</t>
-  </si>
-  <si>
     <t>callable by us; but does not need accessControl</t>
   </si>
   <si>
@@ -166,6 +161,30 @@
   </si>
   <si>
     <t>whenNotFrozen</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pause</t>
+  </si>
+  <si>
+    <t>callable after ended</t>
+  </si>
+  <si>
+    <t>reset operator to 0 addr after each update</t>
+  </si>
+  <si>
+    <t>operater can reset, owner can reset</t>
+  </si>
+  <si>
+    <t>but only owner can set to new</t>
+  </si>
+  <si>
+    <t>if frozen, was paused</t>
   </si>
 </sst>
 </file>
@@ -213,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,12 +314,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,6 +355,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -636,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D544DF9-B6D7-473E-A453-2471533C1400}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +690,7 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -670,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -680,6 +721,11 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -687,7 +733,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="16"/>
       <c r="G3" t="s">
         <v>34</v>
       </c>
@@ -698,7 +744,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -706,7 +752,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="16"/>
       <c r="G5" t="s">
         <v>35</v>
       </c>
@@ -716,8 +762,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="16"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -726,15 +775,18 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -742,7 +794,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -750,7 +802,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -758,9 +810,9 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="16"/>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -771,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
@@ -780,13 +832,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -797,9 +846,6 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -810,7 +856,7 @@
       <c r="C15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,52 +866,52 @@
       <c r="C16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -873,28 +919,28 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
@@ -913,26 +959,100 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="L32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="13"/>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L36" s="13"/>
+      <c r="M36" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="13"/>
+      <c r="M37" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="13"/>
+      <c r="M38" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. stakingPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. StakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0BD31-81E5-4DFA-8C92-E7A6AD29E382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D859B-2525-45F9-8A49-0F8B13F67962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
+    <workbookView xWindow="41415" yWindow="4095" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>Fn</t>
   </si>
@@ -185,13 +185,61 @@
   </si>
   <si>
     <t>if frozen, was paused</t>
+  </si>
+  <si>
+    <t>whenNotUnderMaintenance</t>
+  </si>
+  <si>
+    <t>migrateRp</t>
+  </si>
+  <si>
+    <t>users able to claim after ending</t>
+  </si>
+  <si>
+    <t>Fn (OPERATOR_ROLE)</t>
+  </si>
+  <si>
+    <t>updateMinimumRealmPoints</t>
+  </si>
+  <si>
+    <t>updateMaximumFeeFactor</t>
+  </si>
+  <si>
+    <t>enableMaintenance</t>
+  </si>
+  <si>
+    <t>disableMaintenance</t>
+  </si>
+  <si>
+    <t>updateDistributions</t>
+  </si>
+  <si>
+    <t>distribution related</t>
+  </si>
+  <si>
+    <t>generic pool params</t>
+  </si>
+  <si>
+    <t>NFT_MULTIPLIER</t>
+  </si>
+  <si>
+    <t>whenUnderMaintenance</t>
+  </si>
+  <si>
+    <t>no need for frozen check</t>
+  </si>
+  <si>
+    <t>MONITOR_ROLE</t>
+  </si>
+  <si>
+    <t>DEFAULT_ADMIN_ROLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +279,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF5C6370"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9DB4C2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +353,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -323,12 +426,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,6 +573,73 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -679,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D544DF9-B6D7-473E-A453-2471533C1400}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,4 +1336,506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52D778B-7AE9-40F4-A739-BB5F2DC7D944}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. StakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D859B-2525-45F9-8A49-0F8B13F67962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B490C-18E3-49F1-847A-347DEF09F394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41415" yWindow="4095" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C11E81BD-8086-48B4-8DA7-632AA4FADE65}"/>
   </bookViews>
@@ -630,8 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
@@ -640,6 +638,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1340,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52D778B-7AE9-40F4-A739-BB5F2DC7D944}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
     <col min="9" max="9" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
@@ -1387,8 +1387,10 @@
       <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
@@ -1397,13 +1399,15 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="52"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="38" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
@@ -1412,13 +1416,15 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="39" t="s">
         <v>63</v>
       </c>
       <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1427,11 +1433,13 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="39"/>
       <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
@@ -1440,11 +1448,13 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="39"/>
       <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -1453,11 +1463,13 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="39"/>
       <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>51</v>
       </c>
@@ -1466,11 +1478,13 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="39"/>
       <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -1479,11 +1493,13 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="39"/>
       <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1492,11 +1508,13 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="39"/>
       <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
@@ -1505,11 +1523,13 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="54"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="40"/>
       <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
@@ -1518,13 +1538,15 @@
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="55"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="41"/>
       <c r="I11" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>53</v>
       </c>
@@ -1552,8 +1574,10 @@
       <c r="I12" s="37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
@@ -1562,13 +1586,15 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="55"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="48" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
@@ -1578,15 +1604,16 @@
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="54" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="42"/>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="56" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>26</v>
       </c>
@@ -1598,9 +1625,10 @@
       <c r="G15" s="17"/>
       <c r="H15" s="39"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="57"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>55</v>
       </c>
@@ -1612,9 +1640,10 @@
       <c r="G16" s="17"/>
       <c r="H16" s="39"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="57"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>54</v>
       </c>
@@ -1626,9 +1655,10 @@
       <c r="G17" s="17"/>
       <c r="H17" s="39"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="57"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>21</v>
       </c>
@@ -1640,9 +1670,10 @@
       <c r="G18" s="17"/>
       <c r="H18" s="39"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="57"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1654,9 +1685,10 @@
       <c r="G19" s="30"/>
       <c r="H19" s="40"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="57"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>23</v>
       </c>
@@ -1668,11 +1700,12 @@
       <c r="G20" s="17"/>
       <c r="H20" s="39"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>24</v>
       </c>
@@ -1684,23 +1717,25 @@
       <c r="G21" s="17"/>
       <c r="H21" s="39"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="57"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="31"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="39"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="57"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>56</v>
       </c>
@@ -1712,11 +1747,12 @@
       <c r="G23" s="17"/>
       <c r="H23" s="23"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>58</v>
       </c>
@@ -1728,9 +1764,10 @@
       <c r="G24" s="27"/>
       <c r="H24" s="17"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="57"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>18</v>
       </c>
@@ -1742,9 +1779,10 @@
       <c r="G25" s="27"/>
       <c r="H25" s="17"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="57"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>19</v>
       </c>
@@ -1756,9 +1794,10 @@
       <c r="G26" s="27"/>
       <c r="H26" s="17"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="57"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>20</v>
       </c>
@@ -1770,9 +1809,10 @@
       <c r="G27" s="27"/>
       <c r="H27" s="17"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="57"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>57</v>
       </c>
@@ -1784,8 +1824,10 @@
       <c r="G28" s="27"/>
       <c r="H28" s="30"/>
       <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>0</v>
       </c>
@@ -1805,8 +1847,10 @@
       <c r="I29" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -1814,19 +1858,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="55" t="s">
         <v>65</v>
       </c>
     </row>
